--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00D3F5-F7AD-4268-80BC-E5A040C59F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8293D4-2F31-469F-93B0-887530D3A174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Alunos</t>
   </si>
@@ -48,6 +37,15 @@
   </si>
   <si>
     <t>Or</t>
+  </si>
+  <si>
+    <t>HARE</t>
+  </si>
+  <si>
+    <t>FPOO</t>
+  </si>
+  <si>
+    <t>SOP</t>
   </si>
 </sst>
 </file>
@@ -428,32 +426,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2">
-        <v>44762</v>
+        <v>45126</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45127</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45128</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45131</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45132</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45133</v>
+      </c>
+      <c r="I1" s="2">
+        <v>45134</v>
+      </c>
+      <c r="J1" s="2">
+        <v>45135</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -462,6 +481,27 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8293D4-2F31-469F-93B0-887530D3A174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB277098-CAF9-40F8-8BE9-103839148ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
   <si>
     <t>Alunos</t>
   </si>
@@ -46,6 +46,132 @@
   </si>
   <si>
     <t>SOP</t>
+  </si>
+  <si>
+    <t>Carlos Henrique de Oliveira Siqueira 5 5</t>
+  </si>
+  <si>
+    <t>Carlos Henrique Jesus de Almeida Filho 6 6</t>
+  </si>
+  <si>
+    <t>Eretz Israel Colares Caldas Maciel 7 7</t>
+  </si>
+  <si>
+    <t>João Vitor Castro Viana Marques 8 8</t>
+  </si>
+  <si>
+    <t>Erick da Silva de Jesus 9 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alef Santos da Costa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carla Carota Mozena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alefe de Magalhães Vigatto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Augusto Rodrigues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allan Diego Fernandes da Silva Parreira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriella Godoi Avila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Cesar de Oliveira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme Carvalho de Oliveira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halina Yelena Volkov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karina Corrêa Shifferli Santos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor Henrique Gonçalves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isac Catarino Natividade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Clara Ortiz Ochner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Oliveira Carvalho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaqueline de Faria Rodrigues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leticia Aparecido Hofman de Souza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Cecília Evangelista Oliveira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Otávio da Silva Ramos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Eduarda da Silva Moraes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Otávio Rodrigues Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Fernada Mattoso Oliveira Rello </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Henrique Pereira Sanches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael David Paes Landim Rodrigues da Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul Miguel Ferreira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiago Gabriel Pereira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otávio Bassi de Freitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otavio Lima Bueno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walyson Lima Pompeu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yulian Carlo Diaz Vannuchi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinicius Manzano dos Santos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isamara Lorraine Bento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Ribeiro Pelliciotti Pinto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camilla Piva da Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás Paiva Giangiulio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicero Ruan Soares Baborsa </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -426,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +630,690 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
+    <sortCondition ref="A2:A42"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
